--- a/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.3346278947282513</v>
+        <v>0.3351768771135573</v>
       </c>
       <c r="B2">
-        <v>0.5036053734514618</v>
+        <v>0.5060638175655189</v>
       </c>
       <c r="C2">
-        <v>0.1800088173594993</v>
+        <v>0.1796546986643375</v>
       </c>
       <c r="D2">
-        <v>0.4175805457661747</v>
+        <v>0.4195427544048741</v>
       </c>
       <c r="E2">
-        <v>0.244465865549312</v>
+        <v>0.245578189146106</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.342395263097759</v>
+        <v>2.346238139794901</v>
       </c>
       <c r="L2">
-        <v>3.525237614160233</v>
+        <v>3.542446722958632</v>
       </c>
       <c r="M2">
-        <v>1.260061721516495</v>
+        <v>1.257582890650363</v>
       </c>
       <c r="N2">
-        <v>2.923063820363223</v>
+        <v>2.936799280834118</v>
       </c>
       <c r="O2">
-        <v>1.711261058845184</v>
+        <v>1.719047324022742</v>
       </c>
       <c r="P2">
-        <v>66.9208</v>
+        <v>66.71236</v>
       </c>
       <c r="Q2">
-        <v>160.448613723413</v>
+        <v>158.8199294437367</v>
       </c>
       <c r="R2">
-        <v>-0.5727475235148211</v>
+        <v>-0.9222002297039863</v>
       </c>
       <c r="S2">
-        <v>94.73424782582423</v>
+        <v>93.94103923246006</v>
       </c>
       <c r="T2">
-        <v>41.7674673654717</v>
+        <v>41.68995937282172</v>
       </c>
       <c r="U2">
-        <v>0.2007277116133447</v>
+        <v>0.2013905106781432</v>
       </c>
       <c r="V2">
-        <v>0.3593269136969632</v>
+        <v>0.3608144527543763</v>
       </c>
       <c r="W2">
-        <v>0.01577665778249488</v>
+        <v>0.01761398589523827</v>
       </c>
       <c r="X2">
-        <v>0.2934473879569458</v>
+        <v>0.2937437689855742</v>
       </c>
       <c r="Y2">
-        <v>0.09759430811847805</v>
+        <v>0.09906292406488931</v>
       </c>
       <c r="Z2">
-        <v>0.8048030784860648</v>
+        <v>0.806474547716027</v>
       </c>
       <c r="AA2">
-        <v>1.012458727616161</v>
+        <v>1.013577409345779</v>
       </c>
       <c r="AB2">
-        <v>0.2711897445368369</v>
+        <v>0.2791071634945997</v>
       </c>
       <c r="AC2">
-        <v>0.9052441990640233</v>
+        <v>0.9052320647278638</v>
       </c>
       <c r="AD2">
-        <v>0.618486542944751</v>
+        <v>0.6232276245013814</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.33</v>
       </c>
       <c r="F3">
-        <v>7.031780970968122</v>
+        <v>7.050185388242457</v>
       </c>
       <c r="G3">
-        <v>10.35157562860011</v>
+        <v>10.39984920659461</v>
       </c>
       <c r="H3">
-        <v>3.871631852688999</v>
+        <v>3.86079638696003</v>
       </c>
       <c r="I3">
-        <v>8.681416713841827</v>
+        <v>8.707853521770621</v>
       </c>
       <c r="J3">
-        <v>5.268397729245723</v>
+        <v>5.299282209844216</v>
       </c>
       <c r="K3">
-        <v>2.32048772041948</v>
+        <v>2.326561178120011</v>
       </c>
       <c r="L3">
-        <v>3.416019957438036</v>
+        <v>3.431950238176221</v>
       </c>
       <c r="M3">
-        <v>1.27763851138737</v>
+        <v>1.27406280769681</v>
       </c>
       <c r="N3">
-        <v>2.864867515567803</v>
+        <v>2.873591662184305</v>
       </c>
       <c r="O3">
-        <v>1.738571250651088</v>
+        <v>1.748763129248591</v>
       </c>
       <c r="P3">
-        <v>66.96250000000001</v>
+        <v>66.78951000000001</v>
       </c>
       <c r="Q3">
-        <v>114.242186384998</v>
+        <v>114.5183013445008</v>
       </c>
       <c r="R3">
-        <v>52.35933342789797</v>
+        <v>52.14962197739374</v>
       </c>
       <c r="S3">
-        <v>76.19977862566382</v>
+        <v>75.60569506759896</v>
       </c>
       <c r="T3">
-        <v>56.43118100375168</v>
+        <v>56.39191629479538</v>
       </c>
       <c r="U3">
-        <v>0.1991802249111247</v>
+        <v>0.2001324207050712</v>
       </c>
       <c r="V3">
-        <v>0.347295320366343</v>
+        <v>0.3491814829917947</v>
       </c>
       <c r="W3">
-        <v>0.02976322630320161</v>
+        <v>0.0295351232119927</v>
       </c>
       <c r="X3">
-        <v>0.2859319319833561</v>
+        <v>0.2859781489362377</v>
       </c>
       <c r="Y3">
-        <v>0.1035212279040909</v>
+        <v>0.1052450444196071</v>
       </c>
       <c r="Z3">
-        <v>0.8185561724950173</v>
+        <v>0.8198098386603069</v>
       </c>
       <c r="AA3">
-        <v>0.991718632777663</v>
+        <v>0.9935588253029293</v>
       </c>
       <c r="AB3">
-        <v>0.4184791837534627</v>
+        <v>0.4174250330544992</v>
       </c>
       <c r="AC3">
-        <v>0.9118064114331137</v>
+        <v>0.9111008746823749</v>
       </c>
       <c r="AD3">
-        <v>0.6650093778618686</v>
+        <v>0.6677358467506402</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3349694863436055</v>
+        <v>0.3350558419577123</v>
       </c>
       <c r="B4">
-        <v>0.5081927706238247</v>
+        <v>0.5086499483008653</v>
       </c>
       <c r="C4">
-        <v>0.1800367434574879</v>
+        <v>0.1800329909208327</v>
       </c>
       <c r="D4">
-        <v>0.420767220842815</v>
+        <v>0.4191459405920589</v>
       </c>
       <c r="E4">
-        <v>0.2448340683946418</v>
+        <v>0.2454954139778766</v>
       </c>
       <c r="F4">
-        <v>7.047104856959494</v>
+        <v>7.053464883417598</v>
       </c>
       <c r="G4">
-        <v>10.37431171480037</v>
+        <v>10.4033846660129</v>
       </c>
       <c r="H4">
-        <v>3.876352708569786</v>
+        <v>3.861647242603307</v>
       </c>
       <c r="I4">
-        <v>8.709815150509453</v>
+        <v>8.702338044188473</v>
       </c>
       <c r="J4">
-        <v>5.311320433757266</v>
+        <v>5.317217194305628</v>
       </c>
       <c r="K4">
-        <v>2.360784270526338</v>
+        <v>2.363622771069657</v>
       </c>
       <c r="L4">
-        <v>4.250342439201584</v>
+        <v>4.233048760917629</v>
       </c>
       <c r="M4">
-        <v>1.035059965818879</v>
+        <v>1.025475250545921</v>
       </c>
       <c r="N4">
-        <v>3.176818680719085</v>
+        <v>3.165455211722798</v>
       </c>
       <c r="O4">
-        <v>1.524953602612467</v>
+        <v>1.518695666687967</v>
       </c>
       <c r="P4">
-        <v>66.5472</v>
+        <v>66.27011</v>
       </c>
       <c r="Q4">
-        <v>162.3423492486556</v>
+        <v>163.82047538298</v>
       </c>
       <c r="R4">
-        <v>0.6612103240337466</v>
+        <v>-0.6129810202759727</v>
       </c>
       <c r="S4">
-        <v>97.7363365788202</v>
+        <v>96.23347761342018</v>
       </c>
       <c r="T4">
-        <v>39.73110595495677</v>
+        <v>39.78443561287411</v>
       </c>
       <c r="U4">
-        <v>0.198175378423829</v>
+        <v>0.1986317842501169</v>
       </c>
       <c r="V4">
-        <v>0.4177151662082227</v>
+        <v>0.4167168209495163</v>
       </c>
       <c r="W4">
-        <v>-0.00808756275911315</v>
+        <v>-0.009228800358541341</v>
       </c>
       <c r="X4">
-        <v>0.3262545874434016</v>
+        <v>0.3265265691653199</v>
       </c>
       <c r="Y4">
-        <v>0.0678901853357273</v>
+        <v>0.06783025487022593</v>
       </c>
       <c r="Z4">
-        <v>0.7668568311167751</v>
+        <v>0.7663562657945971</v>
       </c>
       <c r="AA4">
-        <v>1.026374446992634</v>
+        <v>1.025878516857799</v>
       </c>
       <c r="AB4">
-        <v>0.09015930727236329</v>
+        <v>0.08141683977251001</v>
       </c>
       <c r="AC4">
-        <v>0.9213653488351002</v>
+        <v>0.9214637787715185</v>
       </c>
       <c r="AD4">
-        <v>0.5035562464557588</v>
+        <v>0.500462807955672</v>
       </c>
     </row>
   </sheetData>

--- a/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.3351768771135573</v>
+        <v>0.3299849534320388</v>
       </c>
       <c r="B2">
-        <v>0.5060638175655189</v>
+        <v>0.4184978746830859</v>
       </c>
       <c r="C2">
-        <v>0.1796546986643375</v>
+        <v>0.2417807408181229</v>
       </c>
       <c r="D2">
-        <v>0.4195427544048741</v>
+        <v>0.3737467453250149</v>
       </c>
       <c r="E2">
-        <v>0.245578189146106</v>
+        <v>0.2839621223878922</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.346238139794901</v>
+        <v>2.309894674024271</v>
       </c>
       <c r="L2">
-        <v>3.542446722958632</v>
+        <v>2.929485122781602</v>
       </c>
       <c r="M2">
-        <v>1.257582890650363</v>
+        <v>1.69246518572686</v>
       </c>
       <c r="N2">
-        <v>2.936799280834118</v>
+        <v>2.616227217275104</v>
       </c>
       <c r="O2">
-        <v>1.719047324022742</v>
+        <v>1.987734856715246</v>
       </c>
       <c r="P2">
-        <v>66.71236</v>
+        <v>66.14035</v>
       </c>
       <c r="Q2">
-        <v>158.8199294437367</v>
+        <v>108.8290731272669</v>
       </c>
       <c r="R2">
-        <v>-0.9222002297039863</v>
+        <v>43.95103301855618</v>
       </c>
       <c r="S2">
-        <v>93.94103923246006</v>
+        <v>79.48393468757878</v>
       </c>
       <c r="T2">
-        <v>41.68995937282172</v>
+        <v>51.63600791664881</v>
       </c>
       <c r="U2">
-        <v>0.2013905106781432</v>
+        <v>0.2019516717667799</v>
       </c>
       <c r="V2">
-        <v>0.3608144527543763</v>
+        <v>0.2922138194345176</v>
       </c>
       <c r="W2">
-        <v>0.01761398589523827</v>
+        <v>0.09985910553342195</v>
       </c>
       <c r="X2">
-        <v>0.2937437689855742</v>
+        <v>0.2508071157700391</v>
       </c>
       <c r="Y2">
-        <v>0.09906292406488931</v>
+        <v>0.1478193981814509</v>
       </c>
       <c r="Z2">
-        <v>0.806474547716027</v>
+        <v>0.8501516043801202</v>
       </c>
       <c r="AA2">
-        <v>1.013577409345779</v>
+        <v>0.9446876151351921</v>
       </c>
       <c r="AB2">
-        <v>0.2791071634945997</v>
+        <v>0.6855584441312089</v>
       </c>
       <c r="AC2">
-        <v>0.9052320647278638</v>
+        <v>0.9011788995946686</v>
       </c>
       <c r="AD2">
-        <v>0.6232276245013814</v>
+        <v>0.7794325914978461</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.33</v>
       </c>
       <c r="F3">
-        <v>7.050185388242457</v>
+        <v>6.994794719503335</v>
       </c>
       <c r="G3">
-        <v>10.39984920659461</v>
+        <v>8.854542141129887</v>
       </c>
       <c r="H3">
-        <v>3.86079638696003</v>
+        <v>5.132826858615592</v>
       </c>
       <c r="I3">
-        <v>8.707853521770621</v>
+        <v>7.923351523289907</v>
       </c>
       <c r="J3">
-        <v>5.299282209844216</v>
+        <v>6.028623807981445</v>
       </c>
       <c r="K3">
-        <v>2.326561178120011</v>
+        <v>2.3082822574361</v>
       </c>
       <c r="L3">
-        <v>3.431950238176221</v>
+        <v>2.921998906572862</v>
       </c>
       <c r="M3">
-        <v>1.27406280769681</v>
+        <v>1.693832863343145</v>
       </c>
       <c r="N3">
-        <v>2.873591662184305</v>
+        <v>2.614706002685669</v>
       </c>
       <c r="O3">
-        <v>1.748763129248591</v>
+        <v>1.989445856633877</v>
       </c>
       <c r="P3">
-        <v>66.78951000000001</v>
+        <v>64.17094</v>
       </c>
       <c r="Q3">
-        <v>114.5183013445008</v>
+        <v>80.85807097720003</v>
       </c>
       <c r="R3">
-        <v>52.14962197739374</v>
+        <v>56.18609427057385</v>
       </c>
       <c r="S3">
-        <v>75.60569506759896</v>
+        <v>68.87462406001431</v>
       </c>
       <c r="T3">
-        <v>56.39191629479538</v>
+        <v>58.84640390942783</v>
       </c>
       <c r="U3">
-        <v>0.2001324207050712</v>
+        <v>0.2017544353779299</v>
       </c>
       <c r="V3">
-        <v>0.3491814829917947</v>
+        <v>0.2917376639182558</v>
       </c>
       <c r="W3">
-        <v>0.0295351232119927</v>
+        <v>0.1000069737949224</v>
       </c>
       <c r="X3">
-        <v>0.2859781489362377</v>
+        <v>0.2503411223966134</v>
       </c>
       <c r="Y3">
-        <v>0.1052450444196071</v>
+        <v>0.147910713417528</v>
       </c>
       <c r="Z3">
-        <v>0.8198098386603069</v>
+        <v>0.8504914315656196</v>
       </c>
       <c r="AA3">
-        <v>0.9935588253029293</v>
+        <v>0.943211181054956</v>
       </c>
       <c r="AB3">
-        <v>0.4174250330544992</v>
+        <v>0.6920824332762201</v>
       </c>
       <c r="AC3">
-        <v>0.9111008746823749</v>
+        <v>0.9015301455825644</v>
       </c>
       <c r="AD3">
-        <v>0.6677358467506402</v>
+        <v>0.7809126469286877</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3350558419577123</v>
+        <v>0.3301105416098413</v>
       </c>
       <c r="B4">
-        <v>0.5086499483008653</v>
+        <v>0.4179068582842576</v>
       </c>
       <c r="C4">
-        <v>0.1800329909208327</v>
+        <v>0.2416849141139535</v>
       </c>
       <c r="D4">
-        <v>0.4191459405920589</v>
+        <v>0.3740157998440143</v>
       </c>
       <c r="E4">
-        <v>0.2454954139778766</v>
+        <v>0.2843093394167646</v>
       </c>
       <c r="F4">
-        <v>7.053464883417598</v>
+        <v>7.000603011245695</v>
       </c>
       <c r="G4">
-        <v>10.4033846660129</v>
+        <v>8.858955327440841</v>
       </c>
       <c r="H4">
-        <v>3.861647242603307</v>
+        <v>5.125928625277665</v>
       </c>
       <c r="I4">
-        <v>8.702338044188473</v>
+        <v>7.923112155530301</v>
       </c>
       <c r="J4">
-        <v>5.317217194305628</v>
+        <v>6.034413403095476</v>
       </c>
       <c r="K4">
-        <v>2.363622771069657</v>
+        <v>2.31095479881165</v>
       </c>
       <c r="L4">
-        <v>4.233048760917629</v>
+        <v>3.241848093887591</v>
       </c>
       <c r="M4">
-        <v>1.025475250545921</v>
+        <v>1.495681560499509</v>
       </c>
       <c r="N4">
-        <v>3.165455211722798</v>
+        <v>2.746066621702917</v>
       </c>
       <c r="O4">
-        <v>1.518695666687967</v>
+        <v>1.858766723696207</v>
       </c>
       <c r="P4">
-        <v>66.27011</v>
+        <v>67.36566000000001</v>
       </c>
       <c r="Q4">
-        <v>163.82047538298</v>
+        <v>116.774986235109</v>
       </c>
       <c r="R4">
-        <v>-0.6129810202759727</v>
+        <v>42.87138240793082</v>
       </c>
       <c r="S4">
-        <v>96.23347761342018</v>
+        <v>82.03059320246304</v>
       </c>
       <c r="T4">
-        <v>39.78443561287411</v>
+        <v>51.32892910210004</v>
       </c>
       <c r="U4">
-        <v>0.1986317842501169</v>
+        <v>0.1997598320828628</v>
       </c>
       <c r="V4">
-        <v>0.4167168209495163</v>
+        <v>0.3285547090205936</v>
       </c>
       <c r="W4">
-        <v>-0.009228800358541341</v>
+        <v>0.06362921624793981</v>
       </c>
       <c r="X4">
-        <v>0.3265265691653199</v>
+        <v>0.2693643256374609</v>
       </c>
       <c r="Y4">
-        <v>0.06783025487022593</v>
+        <v>0.1249662934311058</v>
       </c>
       <c r="Z4">
-        <v>0.7663562657945971</v>
+        <v>0.8357140874367625</v>
       </c>
       <c r="AA4">
-        <v>1.025878516857799</v>
+        <v>0.9723777907646807</v>
       </c>
       <c r="AB4">
-        <v>0.08141683977251001</v>
+        <v>0.5721374368607285</v>
       </c>
       <c r="AC4">
-        <v>0.9214637787715185</v>
+        <v>0.9087312320516334</v>
       </c>
       <c r="AD4">
-        <v>0.500462807955672</v>
+        <v>0.7279159123833915</v>
       </c>
     </row>
   </sheetData>

--- a/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.3299849534320388</v>
+        <v>0.3301540257303052</v>
       </c>
       <c r="B2">
-        <v>0.4184978746830859</v>
+        <v>0.4180748918858738</v>
       </c>
       <c r="C2">
-        <v>0.2417807408181229</v>
+        <v>0.2422591275257413</v>
       </c>
       <c r="D2">
-        <v>0.3737467453250149</v>
+        <v>0.3740786501923992</v>
       </c>
       <c r="E2">
-        <v>0.2839621223878922</v>
+        <v>0.2842978136298555</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.309894674024271</v>
+        <v>2.311078180112137</v>
       </c>
       <c r="L2">
-        <v>2.929485122781602</v>
+        <v>2.926524243201117</v>
       </c>
       <c r="M2">
-        <v>1.69246518572686</v>
+        <v>1.695813892680189</v>
       </c>
       <c r="N2">
-        <v>2.616227217275104</v>
+        <v>2.618550551346794</v>
       </c>
       <c r="O2">
-        <v>1.987734856715246</v>
+        <v>1.990084695408989</v>
       </c>
       <c r="P2">
-        <v>66.14035</v>
+        <v>66.05628</v>
       </c>
       <c r="Q2">
-        <v>108.8290731272669</v>
+        <v>106.2358135567998</v>
       </c>
       <c r="R2">
-        <v>43.95103301855618</v>
+        <v>44.2371565060079</v>
       </c>
       <c r="S2">
-        <v>79.48393468757878</v>
+        <v>79.39843639789488</v>
       </c>
       <c r="T2">
-        <v>51.63600791664881</v>
+        <v>51.5675950638615</v>
       </c>
       <c r="U2">
-        <v>0.2019516717667799</v>
+        <v>0.2021352712777554</v>
       </c>
       <c r="V2">
-        <v>0.2922138194345176</v>
+        <v>0.2926165953241754</v>
       </c>
       <c r="W2">
-        <v>0.09985910553342195</v>
+        <v>0.1001694724071756</v>
       </c>
       <c r="X2">
-        <v>0.2508071157700391</v>
+        <v>0.2509168260644795</v>
       </c>
       <c r="Y2">
-        <v>0.1478193981814509</v>
+        <v>0.1481499335229316</v>
       </c>
       <c r="Z2">
-        <v>0.8501516043801202</v>
+        <v>0.8503660456526407</v>
       </c>
       <c r="AA2">
-        <v>0.9446876151351921</v>
+        <v>0.9451219665608583</v>
       </c>
       <c r="AB2">
-        <v>0.6855584441312089</v>
+        <v>0.6857754988991935</v>
       </c>
       <c r="AC2">
-        <v>0.9011788995946686</v>
+        <v>0.9011788020797677</v>
       </c>
       <c r="AD2">
-        <v>0.7794325914978461</v>
+        <v>0.7798997747887911</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.33</v>
       </c>
       <c r="F3">
-        <v>6.994794719503335</v>
+        <v>6.997043699070906</v>
       </c>
       <c r="G3">
-        <v>8.854542141129887</v>
+        <v>8.861715904580533</v>
       </c>
       <c r="H3">
-        <v>5.132826858615592</v>
+        <v>5.137465499486763</v>
       </c>
       <c r="I3">
-        <v>7.923351523289907</v>
+        <v>7.922917111148767</v>
       </c>
       <c r="J3">
-        <v>6.028623807981445</v>
+        <v>6.032607609514026</v>
       </c>
       <c r="K3">
-        <v>2.3082822574361</v>
+        <v>2.309024420693399</v>
       </c>
       <c r="L3">
-        <v>2.921998906572862</v>
+        <v>2.924366248511577</v>
       </c>
       <c r="M3">
-        <v>1.693832863343145</v>
+        <v>1.695363614830632</v>
       </c>
       <c r="N3">
-        <v>2.614706002685669</v>
+        <v>2.614562646679093</v>
       </c>
       <c r="O3">
-        <v>1.989445856633877</v>
+        <v>1.990760511139628</v>
       </c>
       <c r="P3">
-        <v>64.17094</v>
+        <v>64.13758</v>
       </c>
       <c r="Q3">
-        <v>80.85807097720003</v>
+        <v>79.57673043341543</v>
       </c>
       <c r="R3">
-        <v>56.18609427057385</v>
+        <v>56.11390998056456</v>
       </c>
       <c r="S3">
-        <v>68.87462406001431</v>
+        <v>68.80334011095071</v>
       </c>
       <c r="T3">
-        <v>58.84640390942783</v>
+        <v>58.85339058566949</v>
       </c>
       <c r="U3">
-        <v>0.2017544353779299</v>
+        <v>0.2018761258889472</v>
       </c>
       <c r="V3">
-        <v>0.2917376639182558</v>
+        <v>0.2919734762546212</v>
       </c>
       <c r="W3">
-        <v>0.1000069737949224</v>
+        <v>0.1004297002540606</v>
       </c>
       <c r="X3">
-        <v>0.2503411223966134</v>
+        <v>0.2503720559392113</v>
       </c>
       <c r="Y3">
-        <v>0.147910713417528</v>
+        <v>0.1482172823007125</v>
       </c>
       <c r="Z3">
-        <v>0.8504914315656196</v>
+        <v>0.8506921167644413</v>
       </c>
       <c r="AA3">
-        <v>0.943211181054956</v>
+        <v>0.9433198966718784</v>
       </c>
       <c r="AB3">
-        <v>0.6920824332762201</v>
+        <v>0.693139566530663</v>
       </c>
       <c r="AC3">
-        <v>0.9015301455825644</v>
+        <v>0.9015747599615938</v>
       </c>
       <c r="AD3">
-        <v>0.7809126469286877</v>
+        <v>0.7814561603200323</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3301105416098413</v>
+        <v>0.3297093847762814</v>
       </c>
       <c r="B4">
-        <v>0.4179068582842576</v>
+        <v>0.4174049123312608</v>
       </c>
       <c r="C4">
-        <v>0.2416849141139535</v>
+        <v>0.2411768852045398</v>
       </c>
       <c r="D4">
-        <v>0.3740157998440143</v>
+        <v>0.3735113986295125</v>
       </c>
       <c r="E4">
-        <v>0.2843093394167646</v>
+        <v>0.2841317720859475</v>
       </c>
       <c r="F4">
-        <v>7.000603011245695</v>
+        <v>7.0038047030059</v>
       </c>
       <c r="G4">
-        <v>8.858955327440841</v>
+        <v>8.873234510761996</v>
       </c>
       <c r="H4">
-        <v>5.125928625277665</v>
+        <v>5.143684220167616</v>
       </c>
       <c r="I4">
-        <v>7.923112155530301</v>
+        <v>7.935212733963098</v>
       </c>
       <c r="J4">
-        <v>6.034413403095476</v>
+        <v>6.038263552357972</v>
       </c>
       <c r="K4">
-        <v>2.31095479881165</v>
+        <v>2.309314140373514</v>
       </c>
       <c r="L4">
-        <v>3.241848093887591</v>
+        <v>3.244903865625508</v>
       </c>
       <c r="M4">
-        <v>1.495681560499509</v>
+        <v>1.498608098184649</v>
       </c>
       <c r="N4">
-        <v>2.746066621702917</v>
+        <v>2.745239147762842</v>
       </c>
       <c r="O4">
-        <v>1.858766723696207</v>
+        <v>1.856309055380224</v>
       </c>
       <c r="P4">
-        <v>67.36566000000001</v>
+        <v>67.46753</v>
       </c>
       <c r="Q4">
-        <v>116.774986235109</v>
+        <v>116.2451003531246</v>
       </c>
       <c r="R4">
-        <v>42.87138240793082</v>
+        <v>42.92274676445951</v>
       </c>
       <c r="S4">
-        <v>82.03059320246304</v>
+        <v>82.24039017131605</v>
       </c>
       <c r="T4">
-        <v>51.32892910210004</v>
+        <v>51.44870230938629</v>
       </c>
       <c r="U4">
-        <v>0.1997598320828628</v>
+        <v>0.1994822253293629</v>
       </c>
       <c r="V4">
-        <v>0.3285547090205936</v>
+        <v>0.3286356417094838</v>
       </c>
       <c r="W4">
-        <v>0.06362921624793981</v>
+        <v>0.06391371479221901</v>
       </c>
       <c r="X4">
-        <v>0.2693643256374609</v>
+        <v>0.2694004497854079</v>
       </c>
       <c r="Y4">
-        <v>0.1249662934311058</v>
+        <v>0.1245952481251889</v>
       </c>
       <c r="Z4">
-        <v>0.8357140874367625</v>
+        <v>0.835382945557505</v>
       </c>
       <c r="AA4">
-        <v>0.9723777907646807</v>
+        <v>0.9721077985613743</v>
       </c>
       <c r="AB4">
-        <v>0.5721374368607285</v>
+        <v>0.5731674568921912</v>
       </c>
       <c r="AC4">
-        <v>0.9087312320516334</v>
+        <v>0.9089189833947275</v>
       </c>
       <c r="AD4">
-        <v>0.7279159123833915</v>
+        <v>0.7274288830976245</v>
       </c>
     </row>
   </sheetData>

--- a/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_gaussian.xlsx
@@ -533,280 +533,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
-      <c r="A2">
-        <v>0.3301540257303052</v>
-      </c>
-      <c r="B2">
-        <v>0.4180748918858738</v>
-      </c>
-      <c r="C2">
-        <v>0.2422591275257413</v>
-      </c>
-      <c r="D2">
-        <v>0.3740786501923992</v>
-      </c>
-      <c r="E2">
-        <v>0.2842978136298555</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>2.311078180112137</v>
-      </c>
-      <c r="L2">
-        <v>2.926524243201117</v>
-      </c>
-      <c r="M2">
-        <v>1.695813892680189</v>
-      </c>
-      <c r="N2">
-        <v>2.618550551346794</v>
-      </c>
-      <c r="O2">
-        <v>1.990084695408989</v>
-      </c>
-      <c r="P2">
-        <v>66.05628</v>
-      </c>
-      <c r="Q2">
-        <v>106.2358135567998</v>
-      </c>
-      <c r="R2">
-        <v>44.2371565060079</v>
-      </c>
-      <c r="S2">
-        <v>79.39843639789488</v>
-      </c>
-      <c r="T2">
-        <v>51.5675950638615</v>
-      </c>
-      <c r="U2">
-        <v>0.2021352712777554</v>
-      </c>
-      <c r="V2">
-        <v>0.2926165953241754</v>
-      </c>
-      <c r="W2">
-        <v>0.1001694724071756</v>
-      </c>
-      <c r="X2">
-        <v>0.2509168260644795</v>
-      </c>
-      <c r="Y2">
-        <v>0.1481499335229316</v>
-      </c>
-      <c r="Z2">
-        <v>0.8503660456526407</v>
-      </c>
-      <c r="AA2">
-        <v>0.9451219665608583</v>
-      </c>
-      <c r="AB2">
-        <v>0.6857754988991935</v>
-      </c>
-      <c r="AC2">
-        <v>0.9011788020797677</v>
-      </c>
-      <c r="AD2">
-        <v>0.7798997747887911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
-        <v>0.33</v>
-      </c>
-      <c r="B3">
-        <v>0.33</v>
-      </c>
-      <c r="C3">
-        <v>0.33</v>
-      </c>
-      <c r="D3">
-        <v>0.33</v>
-      </c>
-      <c r="E3">
-        <v>0.33</v>
-      </c>
-      <c r="F3">
-        <v>6.997043699070906</v>
-      </c>
-      <c r="G3">
-        <v>8.861715904580533</v>
-      </c>
-      <c r="H3">
-        <v>5.137465499486763</v>
-      </c>
-      <c r="I3">
-        <v>7.922917111148767</v>
-      </c>
-      <c r="J3">
-        <v>6.032607609514026</v>
-      </c>
-      <c r="K3">
-        <v>2.309024420693399</v>
-      </c>
-      <c r="L3">
-        <v>2.924366248511577</v>
-      </c>
-      <c r="M3">
-        <v>1.695363614830632</v>
-      </c>
-      <c r="N3">
-        <v>2.614562646679093</v>
-      </c>
-      <c r="O3">
-        <v>1.990760511139628</v>
-      </c>
-      <c r="P3">
-        <v>64.13758</v>
-      </c>
-      <c r="Q3">
-        <v>79.57673043341543</v>
-      </c>
-      <c r="R3">
-        <v>56.11390998056456</v>
-      </c>
-      <c r="S3">
-        <v>68.80334011095071</v>
-      </c>
-      <c r="T3">
-        <v>58.85339058566949</v>
-      </c>
-      <c r="U3">
-        <v>0.2018761258889472</v>
-      </c>
-      <c r="V3">
-        <v>0.2919734762546212</v>
-      </c>
-      <c r="W3">
-        <v>0.1004297002540606</v>
-      </c>
-      <c r="X3">
-        <v>0.2503720559392113</v>
-      </c>
-      <c r="Y3">
-        <v>0.1482172823007125</v>
-      </c>
-      <c r="Z3">
-        <v>0.8506921167644413</v>
-      </c>
-      <c r="AA3">
-        <v>0.9433198966718784</v>
-      </c>
-      <c r="AB3">
-        <v>0.693139566530663</v>
-      </c>
-      <c r="AC3">
-        <v>0.9015747599615938</v>
-      </c>
-      <c r="AD3">
-        <v>0.7814561603200323</v>
-      </c>
-    </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3297093847762814</v>
+        <v>0.3296973392106938</v>
       </c>
       <c r="B4">
-        <v>0.4174049123312608</v>
+        <v>0.417805974292161</v>
       </c>
       <c r="C4">
-        <v>0.2411768852045398</v>
+        <v>0.2413099029310042</v>
       </c>
       <c r="D4">
-        <v>0.3735113986295125</v>
+        <v>0.3735848048328873</v>
       </c>
       <c r="E4">
-        <v>0.2841317720859475</v>
+        <v>0.2840026953544471</v>
       </c>
       <c r="F4">
-        <v>7.0038047030059</v>
+        <v>7.002077942463496</v>
       </c>
       <c r="G4">
-        <v>8.873234510761996</v>
+        <v>8.695149276628957</v>
       </c>
       <c r="H4">
-        <v>5.143684220167616</v>
+        <v>5.310634041337306</v>
       </c>
       <c r="I4">
-        <v>7.935212733963098</v>
+        <v>7.843189284973572</v>
       </c>
       <c r="J4">
-        <v>6.038263552357972</v>
+        <v>6.125634627405966</v>
       </c>
       <c r="K4">
-        <v>2.309314140373514</v>
+        <v>2.308718684912954</v>
       </c>
       <c r="L4">
-        <v>3.244903865625508</v>
+        <v>3.198881118013062</v>
       </c>
       <c r="M4">
-        <v>1.498608098184649</v>
+        <v>1.530571468379241</v>
       </c>
       <c r="N4">
-        <v>2.745239147762842</v>
+        <v>2.723243821056452</v>
       </c>
       <c r="O4">
-        <v>1.856309055380224</v>
+        <v>1.874636325871613</v>
       </c>
       <c r="P4">
-        <v>67.46753</v>
+        <v>67.25612</v>
       </c>
       <c r="Q4">
-        <v>116.2451003531246</v>
+        <v>114.6473069500463</v>
       </c>
       <c r="R4">
-        <v>42.92274676445951</v>
+        <v>43.08260692625805</v>
       </c>
       <c r="S4">
-        <v>82.24039017131605</v>
+        <v>81.81154969567304</v>
       </c>
       <c r="T4">
-        <v>51.44870230938629</v>
+        <v>51.47837976500801</v>
       </c>
       <c r="U4">
-        <v>0.1994822253293629</v>
+        <v>0.1997709064090712</v>
       </c>
       <c r="V4">
-        <v>0.3286356417094838</v>
+        <v>0.3236004793987665</v>
       </c>
       <c r="W4">
-        <v>0.06391371479221901</v>
+        <v>0.06896070333280385</v>
       </c>
       <c r="X4">
-        <v>0.2694004497854079</v>
+        <v>0.2665426857909344</v>
       </c>
       <c r="Y4">
-        <v>0.1245952481251889</v>
+        <v>0.1280229037497588</v>
       </c>
       <c r="Z4">
-        <v>0.835382945557505</v>
+        <v>0.8378709402063405</v>
       </c>
       <c r="AA4">
-        <v>0.9721077985613743</v>
+        <v>0.96809666103918</v>
       </c>
       <c r="AB4">
-        <v>0.5731674568921912</v>
+        <v>0.5926709557689795</v>
       </c>
       <c r="AC4">
-        <v>0.9089189833947275</v>
+        <v>0.9080364404473633</v>
       </c>
       <c r="AD4">
-        <v>0.7274288830976245</v>
+        <v>0.7360443419493188</v>
       </c>
     </row>
   </sheetData>
